--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GoogleDrive\_zikkennigaku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AD358B-2118-4FA4-9402-75CCAA85731C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F9EACF-07B9-462B-8888-4E398FE32FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6840" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QC" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="222">
   <si>
     <t>file</t>
   </si>
@@ -130,159 +130,15 @@
     <t>Additional_Notes</t>
   </si>
   <si>
-    <t>DRR267102.bin.1</t>
-  </si>
-  <si>
     <t>Neural Network (Specific Model)</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>DRR267102.bin.10</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.11</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.12</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.13</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.14</t>
-  </si>
-  <si>
     <t>Gradient Boost (General Model)</t>
   </si>
   <si>
-    <t>DRR267102.bin.15</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.16</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.17</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.18</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.19</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.2</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.20</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.21</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.22</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.23</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.24</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.25</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.26</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.27</t>
-  </si>
-  <si>
-    <t>Low confidence prediction - substantial (27%) disagreement between completeness prediction models</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.28</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.29</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.3</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.30</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.31</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.32</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.33</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.34</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.35</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.36</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.37</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.38</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.39</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.4</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.40</t>
-  </si>
-  <si>
-    <t>Low confidence prediction - substantial (35%) disagreement between completeness prediction models</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.41</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.42</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.43</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.44</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.45</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.46</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.5</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.6</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.7</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.8</t>
-  </si>
-  <si>
-    <t>DRR267102.bin.9</t>
-  </si>
-  <si>
     <t>DRR267104.bin.1</t>
   </si>
   <si>
@@ -295,9 +151,6 @@
     <t>DRR267104.bin.12</t>
   </si>
   <si>
-    <t>DRR267104.bin.13</t>
-  </si>
-  <si>
     <t>DRR267104.bin.14</t>
   </si>
   <si>
@@ -329,9 +182,6 @@
   </si>
   <si>
     <t>DRR267104.bin.8</t>
-  </si>
-  <si>
-    <t>DRR267104.bin.9</t>
   </si>
   <si>
     <t>user_genome</t>
@@ -564,6 +414,291 @@
   <si>
     <t>DRR267104.prot.faa</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRR267109.bin.1</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.10</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.11</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.12</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.13</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.14</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.15</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.16</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.17</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.18</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.19</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.2</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.20</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.21</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.22</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.23</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.24</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.25</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.26</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.27</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.28</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.29</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.3</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.30</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.31</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.32</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.33</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.34</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.35</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.36</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.37</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.38</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.39</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.4</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.40</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.41</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.42</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.43</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.44</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.45</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.46</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.47</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.48</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.49</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.5</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.50</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.51</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.52</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.53</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.54</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.55</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.56</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.57</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.58</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.59</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.6</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.60</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.61</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.62</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.63</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.64</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.65</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.66</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.67</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.68</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.69</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.7</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.70</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.71</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.72</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.73</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.74</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.75</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.76</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.77</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.78</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.79</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.8</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.80</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.81</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.82</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.83</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.84</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.85</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.86</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.87</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.88</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.89</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.9</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.90</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.91</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.92</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.93</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.94</t>
+  </si>
+  <si>
+    <t>DRR267109.bin.95</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746EDF24-E24C-4599-9EB5-5BF63792166F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1113,210 +1248,210 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1">
-        <v>7514379</v>
+        <v>4375107</v>
       </c>
       <c r="E2" s="1">
-        <v>1303465819</v>
+        <v>429344322</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2">
-        <v>173.5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2155</v>
+        <v>98.1</v>
+      </c>
+      <c r="H2">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1">
-        <v>4375107</v>
+        <v>4720758</v>
       </c>
       <c r="E3" s="1">
-        <v>429344322</v>
+        <v>471502430</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3">
-        <v>98.1</v>
-      </c>
-      <c r="H3">
-        <v>197</v>
+        <v>99.9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1798</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1">
-        <v>5614684</v>
+        <v>3856893</v>
       </c>
       <c r="E4" s="1">
-        <v>1053580288</v>
+        <v>373133956</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4">
-        <v>187.6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3198</v>
+        <v>96.7</v>
+      </c>
+      <c r="H4">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1">
-        <v>4720758</v>
+        <v>4320565</v>
       </c>
       <c r="E5" s="1">
-        <v>471502430</v>
+        <v>413969472</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5">
-        <v>99.9</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1798</v>
+        <v>95.8</v>
+      </c>
+      <c r="H5">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1">
-        <v>5139661</v>
+        <v>7514379</v>
       </c>
       <c r="E6" s="1">
-        <v>851880195</v>
+        <v>1303465819</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6">
-        <v>165.7</v>
+        <v>173.5</v>
       </c>
       <c r="H6" s="1">
-        <v>2951</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1">
-        <v>3856893</v>
+        <v>5614684</v>
       </c>
       <c r="E7" s="1">
-        <v>373133956</v>
+        <v>1053580288</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <v>96.7</v>
-      </c>
-      <c r="H7">
-        <v>197</v>
+        <v>187.6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3198</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1">
-        <v>5398201</v>
+        <v>5139661</v>
       </c>
       <c r="E8" s="1">
-        <v>1003764784</v>
+        <v>851880195</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
       <c r="G8">
-        <v>185.9</v>
+        <v>165.7</v>
       </c>
       <c r="H8" s="1">
-        <v>1882</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>4320565</v>
+        <v>5398201</v>
       </c>
       <c r="E9" s="1">
-        <v>413969472</v>
+        <v>1003764784</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9">
-        <v>95.8</v>
-      </c>
-      <c r="H9">
-        <v>197</v>
+        <v>185.9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1882</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2507D1-011B-4591-BAF3-9F83953C8369}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1502,2826 +1637,4185 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B2">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="C2">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0.90100000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G2">
-        <v>15129</v>
+        <v>16894</v>
       </c>
       <c r="H2">
-        <v>229.34268537074101</v>
+        <v>247.92651757188401</v>
       </c>
       <c r="I2">
-        <v>377794</v>
+        <v>250295</v>
       </c>
       <c r="J2">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="K2">
-        <v>499</v>
+        <v>313</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M2">
-        <v>38574</v>
+        <v>26355</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>14.19</v>
+        <v>15.72</v>
       </c>
       <c r="C3">
-        <v>0.57999999999999996</v>
+        <v>8.94</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>0.90300000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="G3">
-        <v>15227</v>
+        <v>15009</v>
       </c>
       <c r="H3">
-        <v>196.53321033210301</v>
+        <v>257.375</v>
       </c>
       <c r="I3">
-        <v>350372</v>
+        <v>445327</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="K3">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>23002</v>
+        <v>28251</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="B4">
-        <v>25.09</v>
+        <v>7.74</v>
       </c>
       <c r="C4">
-        <v>5.47</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0.88900000000000001</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G4">
-        <v>15090</v>
+        <v>14935</v>
       </c>
       <c r="H4">
-        <v>190.32874354561099</v>
+        <v>205.54114713216899</v>
       </c>
       <c r="I4">
-        <v>369776</v>
+        <v>286603</v>
       </c>
       <c r="J4">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="K4">
-        <v>581</v>
+        <v>401</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>28183</v>
+        <v>27274</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>8.32</v>
+        <v>29.71</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>0.91400000000000003</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G5">
-        <v>14211</v>
+        <v>16730</v>
       </c>
       <c r="H5">
-        <v>203.359420289855</v>
+        <v>202.98240740740701</v>
       </c>
       <c r="I5">
-        <v>228144</v>
+        <v>755578</v>
       </c>
       <c r="J5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="K5">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M5">
-        <v>25827</v>
+        <v>26249</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>39.630000000000003</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="C6">
-        <v>9.2100000000000009</v>
+        <v>10.24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>0.92200000000000004</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="G6">
-        <v>25132</v>
+        <v>17155</v>
       </c>
       <c r="H6">
-        <v>239.980769230769</v>
+        <v>166.29273827534001</v>
       </c>
       <c r="I6">
-        <v>1006861</v>
+        <v>751933</v>
       </c>
       <c r="J6">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="K6">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>73390</v>
+        <v>41712</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>58.81</v>
+        <v>9.98</v>
       </c>
       <c r="C7">
-        <v>15.8</v>
+        <v>1.83</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>0.88800000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="G7">
-        <v>15753</v>
+        <v>18996</v>
       </c>
       <c r="H7">
-        <v>181.05106382978701</v>
+        <v>204.78698224851999</v>
       </c>
       <c r="I7">
-        <v>710530</v>
+        <v>235979</v>
       </c>
       <c r="J7">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="K7">
-        <v>1175</v>
+        <v>338</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>56527</v>
+        <v>24772</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="B8">
-        <v>11.46</v>
+        <v>57.22</v>
       </c>
       <c r="C8">
-        <v>0.86</v>
+        <v>11.78</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>0.89300000000000002</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="G8">
-        <v>14979</v>
+        <v>17908</v>
       </c>
       <c r="H8">
-        <v>199.95265151515099</v>
+        <v>210.49275362318801</v>
       </c>
       <c r="I8">
-        <v>350448</v>
+        <v>1620916</v>
       </c>
       <c r="J8">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="K8">
-        <v>528</v>
+        <v>2208</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>39095</v>
+        <v>81738</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>8.2200000000000006</v>
+        <v>5.41</v>
       </c>
       <c r="C9">
-        <v>1.17</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>0.69299999999999995</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="G9">
-        <v>13236</v>
+        <v>16012</v>
       </c>
       <c r="H9">
-        <v>115.43111111111099</v>
+        <v>243.22265625</v>
       </c>
       <c r="I9">
-        <v>446208</v>
+        <v>204689</v>
       </c>
       <c r="J9">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="K9">
-        <v>900</v>
+        <v>256</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>18127</v>
+        <v>23269</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>9.16</v>
+        <v>12.78</v>
       </c>
       <c r="C10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>0.85099999999999998</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="G10">
-        <v>13803</v>
+        <v>15465</v>
       </c>
       <c r="H10">
-        <v>226.90196078431299</v>
+        <v>195.96564885496099</v>
       </c>
       <c r="I10">
-        <v>243087</v>
+        <v>370779</v>
       </c>
       <c r="J10">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="K10">
-        <v>306</v>
+        <v>524</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>21591</v>
+        <v>28531</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>11.29</v>
+        <v>4.22</v>
       </c>
       <c r="C11">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>0.88200000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="G11">
-        <v>16386</v>
+        <v>15626</v>
       </c>
       <c r="H11">
-        <v>198.26130653266301</v>
+        <v>223.15820895522299</v>
       </c>
       <c r="I11">
-        <v>398918</v>
+        <v>253931</v>
       </c>
       <c r="J11">
-        <v>0.3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K11">
-        <v>597</v>
+        <v>335</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>39168</v>
+        <v>27991</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B12">
-        <v>30.7</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="C12">
-        <v>6.28</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>0.90600000000000003</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="G12">
-        <v>20183</v>
+        <v>23844</v>
       </c>
       <c r="H12">
-        <v>204.52966841186699</v>
+        <v>238.40243902438999</v>
       </c>
       <c r="I12">
-        <v>768601</v>
+        <v>276368</v>
       </c>
       <c r="J12">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
-        <v>1146</v>
+        <v>328</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>33753</v>
+        <v>51776</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B13">
-        <v>25.4</v>
+        <v>24.68</v>
       </c>
       <c r="C13">
-        <v>10.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>0.89600000000000002</v>
+        <v>0.871</v>
       </c>
       <c r="G13">
-        <v>19580</v>
+        <v>17046</v>
       </c>
       <c r="H13">
-        <v>198.21233859397401</v>
+        <v>215.36077481840101</v>
       </c>
       <c r="I13">
-        <v>458132</v>
+        <v>911385</v>
       </c>
       <c r="J13">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="K13">
-        <v>697</v>
+        <v>1239</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>53223</v>
+        <v>36431</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="B14">
-        <v>12.32</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="C14">
-        <v>0.17</v>
+        <v>6.41</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>0.92600000000000005</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G14">
-        <v>22123</v>
+        <v>18471</v>
       </c>
       <c r="H14">
-        <v>260.43599999999998</v>
+        <v>196.81372549019599</v>
       </c>
       <c r="I14">
-        <v>209744</v>
+        <v>404889</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="K14">
-        <v>250</v>
+        <v>612</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M14">
-        <v>35892</v>
+        <v>32903</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B15">
-        <v>8.32</v>
+        <v>62.62</v>
       </c>
       <c r="C15">
-        <v>0.01</v>
+        <v>35.25</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>0.90800000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="G15">
-        <v>20476</v>
+        <v>14160</v>
       </c>
       <c r="H15">
-        <v>228.591397849462</v>
+        <v>178.832046636206</v>
       </c>
       <c r="I15">
-        <v>278535</v>
+        <v>3879035</v>
       </c>
       <c r="J15">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
       <c r="K15">
-        <v>372</v>
+        <v>6347</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="M15">
-        <v>60229</v>
+        <v>31006</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="B16">
-        <v>99.73</v>
+        <v>11.23</v>
       </c>
       <c r="C16">
-        <v>84.23</v>
+        <v>0.02</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>0.89900000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G16">
-        <v>17099</v>
+        <v>14425</v>
       </c>
       <c r="H16">
-        <v>200.96385097749899</v>
+        <v>197.78743068391799</v>
       </c>
       <c r="I16">
-        <v>7209116</v>
+        <v>381069</v>
       </c>
       <c r="J16">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>10844</v>
+        <v>541</v>
       </c>
       <c r="L16">
-        <v>417</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>94632</v>
+        <v>22109</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="B17">
-        <v>4.7</v>
+        <v>47.9</v>
       </c>
       <c r="C17">
-        <v>0.67</v>
+        <v>13.04</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>0.89300000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="G17">
-        <v>21393</v>
+        <v>17406</v>
       </c>
       <c r="H17">
-        <v>141.60364464692401</v>
+        <v>206.502231036192</v>
       </c>
       <c r="I17">
-        <v>204875</v>
+        <v>1384757</v>
       </c>
       <c r="J17">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="K17">
-        <v>439</v>
+        <v>2017</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="M17">
-        <v>46708</v>
+        <v>61254</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B18">
-        <v>2.0699999999999998</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="C18">
-        <v>7.64</v>
+        <v>2.9</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>0.91200000000000003</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="G18">
-        <v>16108</v>
+        <v>14760</v>
       </c>
       <c r="H18">
-        <v>256.55823293172602</v>
+        <v>203.98214285714201</v>
       </c>
       <c r="I18">
-        <v>209006</v>
+        <v>719108</v>
       </c>
       <c r="J18">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="K18">
-        <v>249</v>
+        <v>1008</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>24995</v>
+        <v>24856</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B19">
-        <v>58.49</v>
+        <v>15.13</v>
       </c>
       <c r="C19">
-        <v>5.96</v>
+        <v>0.2</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>0.91400000000000003</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="G19">
-        <v>36857</v>
+        <v>14094</v>
       </c>
       <c r="H19">
-        <v>260.881881346873</v>
+        <v>197.10292072322599</v>
       </c>
       <c r="I19">
-        <v>1593284</v>
+        <v>471484</v>
       </c>
       <c r="J19">
-        <v>0.28999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="K19">
-        <v>1871</v>
+        <v>719</v>
       </c>
       <c r="L19">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>93143</v>
+        <v>24494</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="B20">
-        <v>32.68</v>
+        <v>16.13</v>
       </c>
       <c r="C20">
-        <v>6.31</v>
+        <v>0.12</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>0.91</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="G20">
-        <v>15249</v>
+        <v>16801</v>
       </c>
       <c r="H20">
-        <v>200.23202170963299</v>
+        <v>202.03962460896699</v>
       </c>
       <c r="I20">
-        <v>482044</v>
+        <v>682505</v>
       </c>
       <c r="J20">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="K20">
-        <v>737</v>
+        <v>959</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>30627</v>
+        <v>34069</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>57.76</v>
       </c>
       <c r="C21">
-        <v>79.53</v>
+        <v>11.95</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
       <c r="F21">
-        <v>0.90400000000000003</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="G21">
-        <v>16177</v>
+        <v>19395</v>
       </c>
       <c r="H21">
-        <v>201.05839780384301</v>
+        <v>212.814258911819</v>
       </c>
       <c r="I21">
-        <v>2648675</v>
+        <v>1955101</v>
       </c>
       <c r="J21">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="K21">
-        <v>4007</v>
+        <v>2665</v>
       </c>
       <c r="L21">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="M21">
-        <v>55522</v>
+        <v>74062</v>
       </c>
       <c r="N21" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B22">
-        <v>1.1200000000000001</v>
+        <v>37.01</v>
       </c>
       <c r="C22">
-        <v>110.27</v>
+        <v>7.36</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>0.85699999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="G22">
-        <v>14028</v>
+        <v>15775</v>
       </c>
       <c r="H22">
-        <v>187.82163332397801</v>
+        <v>193.250936329588</v>
       </c>
       <c r="I22">
-        <v>16298212</v>
+        <v>1046750</v>
       </c>
       <c r="J22">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="K22">
-        <v>24943</v>
+        <v>1602</v>
       </c>
       <c r="L22">
-        <v>1185</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>110229</v>
+        <v>27910</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B23">
-        <v>10.210000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>0.91900000000000004</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="G23">
-        <v>16701</v>
+        <v>21658</v>
       </c>
       <c r="H23">
-        <v>236.28222996515601</v>
+        <v>228.43584521384901</v>
       </c>
       <c r="I23">
-        <v>219311</v>
+        <v>372141</v>
       </c>
       <c r="J23">
-        <v>0.45</v>
+        <v>0.62</v>
       </c>
       <c r="K23">
-        <v>287</v>
+        <v>491</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>30405</v>
+        <v>56862</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B24">
-        <v>43.49</v>
+        <v>13.96</v>
       </c>
       <c r="C24">
-        <v>9.1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>0.89300000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G24">
-        <v>14977</v>
+        <v>13070</v>
       </c>
       <c r="H24">
-        <v>200.50096463022501</v>
+        <v>203.237597911227</v>
       </c>
       <c r="I24">
-        <v>1037530</v>
+        <v>262022</v>
       </c>
       <c r="J24">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="K24">
-        <v>1555</v>
+        <v>383</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>37157</v>
+        <v>25826</v>
       </c>
       <c r="N24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B25">
-        <v>69.260000000000005</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C25">
-        <v>24.83</v>
+        <v>2.35</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>0.86899999999999999</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="G25">
-        <v>16108</v>
+        <v>12517</v>
       </c>
       <c r="H25">
-        <v>206.720214190093</v>
+        <v>213.28893905191799</v>
       </c>
       <c r="I25">
-        <v>2646783</v>
+        <v>305371</v>
       </c>
       <c r="J25">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="K25">
-        <v>3735</v>
+        <v>443</v>
       </c>
       <c r="L25">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>42713</v>
+        <v>17220</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="B26">
-        <v>20.69</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="C26">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>0.89800000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G26">
-        <v>15482</v>
+        <v>19156</v>
       </c>
       <c r="H26">
-        <v>218.287917737789</v>
+        <v>193.67098445595801</v>
       </c>
       <c r="I26">
-        <v>563688</v>
+        <v>251143</v>
       </c>
       <c r="J26">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="K26">
-        <v>778</v>
+        <v>386</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>34156</v>
+        <v>27739</v>
       </c>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="B27">
-        <v>22.82</v>
+        <v>55.04</v>
       </c>
       <c r="C27">
-        <v>1.6</v>
+        <v>2.44</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>0.874</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G27">
-        <v>17282</v>
+        <v>17455</v>
       </c>
       <c r="H27">
-        <v>210.753383458646</v>
+        <v>212.16508367254599</v>
       </c>
       <c r="I27">
-        <v>477580</v>
+        <v>1562289</v>
       </c>
       <c r="J27">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="K27">
-        <v>665</v>
+        <v>2211</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="M27">
-        <v>53851</v>
+        <v>45242</v>
       </c>
       <c r="N27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="B28">
-        <v>6.48</v>
+        <v>12.91</v>
       </c>
       <c r="C28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>0.9</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="G28">
-        <v>16734</v>
+        <v>18154</v>
       </c>
       <c r="H28">
-        <v>227.45695364238401</v>
+        <v>209.106646058732</v>
       </c>
       <c r="I28">
-        <v>227130</v>
+        <v>465698</v>
       </c>
       <c r="J28">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="K28">
-        <v>302</v>
+        <v>647</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>32864</v>
+        <v>33017</v>
       </c>
       <c r="N28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="B29">
-        <v>7.49</v>
+        <v>53.3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>0.91700000000000004</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="G29">
-        <v>17827</v>
+        <v>14845</v>
       </c>
       <c r="H29">
-        <v>252.61847389558201</v>
+        <v>209.00145507457199</v>
       </c>
       <c r="I29">
-        <v>203541</v>
+        <v>2081050</v>
       </c>
       <c r="J29">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="K29">
-        <v>249</v>
+        <v>2749</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="M29">
-        <v>48757</v>
+        <v>39911</v>
       </c>
       <c r="N29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="B30">
-        <v>24.62</v>
+        <v>15.07</v>
       </c>
       <c r="C30">
-        <v>1.56</v>
+        <v>0.1</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>0.90500000000000003</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="G30">
-        <v>18361</v>
+        <v>17295</v>
       </c>
       <c r="H30">
-        <v>220.61142061281299</v>
+        <v>201.85457809694699</v>
       </c>
       <c r="I30">
-        <v>522111</v>
+        <v>386070</v>
       </c>
       <c r="J30">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K30">
-        <v>718</v>
+        <v>557</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>54174</v>
+        <v>24352</v>
       </c>
       <c r="N30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B31">
-        <v>9.61</v>
+        <v>19.79</v>
       </c>
       <c r="C31">
-        <v>0.19</v>
+        <v>2.8</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>0.90500000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G31">
-        <v>14981</v>
+        <v>17078</v>
       </c>
       <c r="H31">
-        <v>207.34107142857101</v>
+        <v>219.41616766467001</v>
       </c>
       <c r="I31">
-        <v>380683</v>
+        <v>492818</v>
       </c>
       <c r="J31">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="K31">
-        <v>560</v>
+        <v>668</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>33940</v>
+        <v>35416</v>
       </c>
       <c r="N31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="B32">
-        <v>8.92</v>
+        <v>12.11</v>
       </c>
       <c r="C32">
-        <v>0.81</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>0.87</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G32">
-        <v>15896</v>
+        <v>13271</v>
       </c>
       <c r="H32">
-        <v>184.60305343511399</v>
+        <v>202.82332761577999</v>
       </c>
       <c r="I32">
-        <v>248179</v>
+        <v>394641</v>
       </c>
       <c r="J32">
-        <v>0.28000000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="K32">
-        <v>393</v>
+        <v>583</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>21995</v>
+        <v>19366</v>
       </c>
       <c r="N32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="B33">
-        <v>44.57</v>
+        <v>14.69</v>
       </c>
       <c r="C33">
-        <v>8.0500000000000007</v>
+        <v>6.51</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>0.90300000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="G33">
-        <v>18357</v>
+        <v>16824</v>
       </c>
       <c r="H33">
-        <v>195.147036181678</v>
+        <v>237.65966386554601</v>
       </c>
       <c r="I33">
-        <v>832987</v>
+        <v>380694</v>
       </c>
       <c r="J33">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="K33">
-        <v>1299</v>
+        <v>476</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>34181</v>
+        <v>52415</v>
       </c>
       <c r="N33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="B34">
-        <v>16.86</v>
+        <v>55.05</v>
       </c>
       <c r="C34">
-        <v>1.1000000000000001</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>0.90100000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="G34">
-        <v>16738</v>
+        <v>15807</v>
       </c>
       <c r="H34">
-        <v>211.1</v>
+        <v>212.384706720493</v>
       </c>
       <c r="I34">
-        <v>404338</v>
+        <v>3000554</v>
       </c>
       <c r="J34">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="K34">
-        <v>580</v>
+        <v>4211</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="M34">
-        <v>31523</v>
+        <v>78262</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="B35">
-        <v>39.659999999999997</v>
+        <v>83.82</v>
       </c>
       <c r="C35">
-        <v>9.7799999999999994</v>
+        <v>32.72</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>0.88700000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="G35">
-        <v>15966</v>
+        <v>18006</v>
       </c>
       <c r="H35">
-        <v>201.325694444444</v>
+        <v>230.34684883208399</v>
       </c>
       <c r="I35">
-        <v>1943834</v>
+        <v>3557154</v>
       </c>
       <c r="J35">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="K35">
-        <v>2880</v>
+        <v>4538</v>
       </c>
       <c r="L35">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="M35">
-        <v>36358</v>
+        <v>91626</v>
       </c>
       <c r="N35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B36">
-        <v>89.13</v>
+        <v>18.59</v>
       </c>
       <c r="C36">
-        <v>78.47</v>
+        <v>0.86</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>0.91100000000000003</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="G36">
-        <v>16658</v>
+        <v>16925</v>
       </c>
       <c r="H36">
-        <v>210.42056349626401</v>
+        <v>177.24004683840701</v>
       </c>
       <c r="I36">
-        <v>11691518</v>
+        <v>519966</v>
       </c>
       <c r="J36">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="K36">
-        <v>17001</v>
+        <v>854</v>
       </c>
       <c r="L36">
-        <v>730</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>117150</v>
+        <v>29787</v>
       </c>
       <c r="N36" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B37">
-        <v>9.8800000000000008</v>
+        <v>26.31</v>
       </c>
       <c r="C37">
-        <v>0.43</v>
+        <v>8.58</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>11</v>
       </c>
       <c r="F37">
-        <v>0.90500000000000003</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="G37">
-        <v>15152</v>
+        <v>15249</v>
       </c>
       <c r="H37">
-        <v>184.51549295774601</v>
+        <v>205.64237288135499</v>
       </c>
       <c r="I37">
-        <v>214877</v>
+        <v>1312433</v>
       </c>
       <c r="J37">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="K37">
-        <v>355</v>
+        <v>1770</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M37">
-        <v>38553</v>
+        <v>46302</v>
       </c>
       <c r="N37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B38">
-        <v>4.71</v>
+        <v>8.11</v>
       </c>
       <c r="C38">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>0.879</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="G38">
-        <v>16523</v>
+        <v>13944</v>
       </c>
       <c r="H38">
-        <v>224.44280442804401</v>
+        <v>263.43442622950801</v>
       </c>
       <c r="I38">
-        <v>205886</v>
+        <v>213586</v>
       </c>
       <c r="J38">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="K38">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>23411</v>
+        <v>19979</v>
       </c>
       <c r="N38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="B39">
-        <v>17.59</v>
+        <v>77.47</v>
       </c>
       <c r="C39">
-        <v>0.02</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>0.92700000000000005</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G39">
-        <v>23888</v>
+        <v>17028</v>
       </c>
       <c r="H39">
-        <v>235.568681318681</v>
+        <v>193.822353188802</v>
       </c>
       <c r="I39">
-        <v>275042</v>
+        <v>3093544</v>
       </c>
       <c r="J39">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="K39">
-        <v>364</v>
+        <v>4751</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="M39">
-        <v>52969</v>
+        <v>69142</v>
       </c>
       <c r="N39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="B40">
-        <v>8.73</v>
+        <v>5.61</v>
       </c>
       <c r="C40">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>0.871</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="G40">
-        <v>14942</v>
+        <v>16438</v>
       </c>
       <c r="H40">
-        <v>193.65274151436</v>
+        <v>224.25519287833799</v>
       </c>
       <c r="I40">
-        <v>252249</v>
+        <v>267284</v>
       </c>
       <c r="J40">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="K40">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>22324</v>
+        <v>27368</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B41">
-        <v>13.23</v>
+        <v>31.96</v>
       </c>
       <c r="C41">
-        <v>1.33</v>
+        <v>3.21</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>0.93899999999999995</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="G41">
-        <v>15409</v>
+        <v>16290</v>
       </c>
       <c r="H41">
-        <v>222.50476190476101</v>
+        <v>207.00909090908999</v>
       </c>
       <c r="I41">
-        <v>222421</v>
+        <v>1254541</v>
       </c>
       <c r="J41">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="K41">
-        <v>315</v>
+        <v>1650</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="M41">
-        <v>23835</v>
+        <v>38476</v>
       </c>
       <c r="N41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="B42">
-        <v>29.72</v>
+        <v>53.11</v>
       </c>
       <c r="C42">
-        <v>24.61</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>0.871</v>
+        <v>0.87</v>
       </c>
       <c r="G42">
-        <v>15420</v>
+        <v>16235</v>
       </c>
       <c r="H42">
-        <v>174.04191333175399</v>
+        <v>161.890656063618</v>
       </c>
       <c r="I42">
-        <v>2502301</v>
+        <v>832060</v>
       </c>
       <c r="J42">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="K42">
-        <v>4223</v>
+        <v>1509</v>
       </c>
       <c r="L42">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="M42">
-        <v>73907</v>
+        <v>39550</v>
       </c>
       <c r="N42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B43">
-        <v>0.15</v>
+        <v>51.98</v>
       </c>
       <c r="C43">
-        <v>108.38</v>
+        <v>8.52</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>0.88300000000000001</v>
+        <v>0.872</v>
       </c>
       <c r="G43">
-        <v>15368</v>
+        <v>16916</v>
       </c>
       <c r="H43">
-        <v>184.81551432663201</v>
+        <v>199.436182019977</v>
       </c>
       <c r="I43">
-        <v>57806611</v>
+        <v>613301</v>
       </c>
       <c r="J43">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="K43">
-        <v>92869</v>
+        <v>901</v>
       </c>
       <c r="L43">
-        <v>3780</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>92879</v>
+        <v>34960</v>
       </c>
       <c r="N43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B44">
-        <v>63.46</v>
+        <v>16.55</v>
       </c>
       <c r="C44">
-        <v>34.67</v>
+        <v>0.9</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>0.89500000000000002</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="G44">
-        <v>15463</v>
+        <v>13606</v>
       </c>
       <c r="H44">
-        <v>194.36916925810701</v>
+        <v>198.66725663716801</v>
       </c>
       <c r="I44">
-        <v>2905772</v>
+        <v>384921</v>
       </c>
       <c r="J44">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="K44">
-        <v>4502</v>
+        <v>565</v>
       </c>
       <c r="L44">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>42107</v>
+        <v>22875</v>
       </c>
       <c r="N44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="B45">
-        <v>14.78</v>
+        <v>57.02</v>
       </c>
       <c r="C45">
-        <v>0.88</v>
+        <v>26.62</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>0.9</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G45">
-        <v>14871</v>
+        <v>21617</v>
       </c>
       <c r="H45">
-        <v>246.07272727272701</v>
+        <v>193.850215517241</v>
       </c>
       <c r="I45">
-        <v>447581</v>
+        <v>1185496</v>
       </c>
       <c r="J45">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="K45">
-        <v>550</v>
+        <v>1856</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M45">
-        <v>30236</v>
+        <v>51160</v>
       </c>
       <c r="N45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B46">
-        <v>16.690000000000001</v>
+        <v>26.99</v>
       </c>
       <c r="C46">
-        <v>1.98</v>
+        <v>0.4</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>0.90400000000000003</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="G46">
-        <v>15436</v>
+        <v>13961</v>
       </c>
       <c r="H46">
-        <v>204.62606577344701</v>
+        <v>203.884036144578</v>
       </c>
       <c r="I46">
-        <v>553298</v>
+        <v>934875</v>
       </c>
       <c r="J46">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="K46">
-        <v>821</v>
+        <v>1328</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M46">
-        <v>21427</v>
+        <v>36494</v>
       </c>
       <c r="N46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B47">
-        <v>14.89</v>
+        <v>22.46</v>
       </c>
       <c r="C47">
-        <v>1.96</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>0.91200000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="G47">
-        <v>14913</v>
+        <v>31650</v>
       </c>
       <c r="H47">
-        <v>186.361924686192</v>
+        <v>285.89549549549503</v>
       </c>
       <c r="I47">
-        <v>290405</v>
+        <v>1059997</v>
       </c>
       <c r="J47">
-        <v>0.31</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K47">
-        <v>478</v>
+        <v>1110</v>
       </c>
       <c r="L47">
+        <v>38</v>
+      </c>
+      <c r="M47">
+        <v>123170</v>
+      </c>
+      <c r="N47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48">
+        <v>19.5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G48">
+        <v>17851</v>
+      </c>
+      <c r="H48">
+        <v>252.521303258145</v>
+      </c>
+      <c r="I48">
+        <v>331815</v>
+      </c>
+      <c r="J48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K48">
+        <v>399</v>
+      </c>
+      <c r="L48">
         <v>19</v>
       </c>
-      <c r="M47">
-        <v>23017</v>
-      </c>
-      <c r="N47" t="s">
-        <v>34</v>
+      <c r="M48">
+        <v>35851</v>
+      </c>
+      <c r="N48" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
+        <v>174</v>
+      </c>
+      <c r="B49">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.8</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G49">
+        <v>18138</v>
+      </c>
+      <c r="H49">
+        <v>195.40026420079201</v>
+      </c>
+      <c r="I49">
+        <v>487595</v>
+      </c>
+      <c r="J49">
+        <v>0.42</v>
+      </c>
+      <c r="K49">
+        <v>757</v>
+      </c>
+      <c r="L49">
         <v>29</v>
       </c>
-      <c r="M49" t="s">
-        <v>30</v>
+      <c r="M49">
+        <v>30233</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="B50">
-        <v>37.450000000000003</v>
+        <v>28.24</v>
       </c>
       <c r="C50">
-        <v>5.27</v>
+        <v>7.01</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>0.97499999999999998</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="G50">
-        <v>10385</v>
+        <v>16507</v>
       </c>
       <c r="H50">
-        <v>282.53160919540198</v>
+        <v>203.40861466821801</v>
       </c>
       <c r="I50">
-        <v>603069</v>
+        <v>1260094</v>
       </c>
       <c r="J50">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="K50">
-        <v>696</v>
+        <v>1718</v>
       </c>
       <c r="L50">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M50">
-        <v>33176</v>
+        <v>38568</v>
       </c>
       <c r="N50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="B51">
-        <v>62.1</v>
+        <v>10.76</v>
       </c>
       <c r="C51">
-        <v>0.89</v>
+        <v>1.06</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>0.93200000000000005</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="G51">
-        <v>5494</v>
+        <v>13583</v>
       </c>
       <c r="H51">
-        <v>249.497518610421</v>
+        <v>198.67500000000001</v>
       </c>
       <c r="I51">
-        <v>1289810</v>
+        <v>226927</v>
       </c>
       <c r="J51">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="K51">
-        <v>1612</v>
+        <v>320</v>
       </c>
       <c r="L51">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>19244</v>
+        <v>20273</v>
       </c>
       <c r="N51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="B52">
-        <v>27.38</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="C52">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.93300000000000005</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="G52">
-        <v>3694</v>
+        <v>18224</v>
       </c>
       <c r="H52">
-        <v>270.505988023952</v>
+        <v>207.896080218778</v>
       </c>
       <c r="I52">
-        <v>580119</v>
+        <v>803452</v>
       </c>
       <c r="J52">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="K52">
-        <v>668</v>
+        <v>1097</v>
       </c>
       <c r="L52">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="M52">
-        <v>10223</v>
+        <v>37216</v>
       </c>
       <c r="N52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B53">
-        <v>67.56</v>
+        <v>41.67</v>
       </c>
       <c r="C53">
-        <v>18.59</v>
+        <v>7.54</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E53">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>0.93799999999999994</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="G53">
-        <v>4171</v>
+        <v>17617</v>
       </c>
       <c r="H53">
-        <v>275.40331491712698</v>
+        <v>208.03608247422599</v>
       </c>
       <c r="I53">
-        <v>2068564</v>
+        <v>1109034</v>
       </c>
       <c r="J53">
         <v>0.4</v>
       </c>
       <c r="K53">
-        <v>2353</v>
+        <v>1552</v>
       </c>
       <c r="L53">
-        <v>501</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>17664</v>
+        <v>49407</v>
       </c>
       <c r="N53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="B54">
-        <v>13.48</v>
+        <v>73.8</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>24.77</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.95499999999999996</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="G54">
-        <v>4156</v>
+        <v>20055</v>
       </c>
       <c r="H54">
-        <v>305.38961038961003</v>
+        <v>231.69845485272799</v>
       </c>
       <c r="I54">
-        <v>294494</v>
+        <v>3241094</v>
       </c>
       <c r="J54">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="K54">
-        <v>308</v>
+        <v>4142</v>
       </c>
       <c r="L54">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="M54">
-        <v>9844</v>
+        <v>118713</v>
       </c>
       <c r="N54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="B55">
-        <v>98.8</v>
+        <v>54.79</v>
       </c>
       <c r="C55">
-        <v>66.89</v>
+        <v>19.84</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E55">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>0.96599999999999997</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="G55">
-        <v>6016</v>
+        <v>16172</v>
       </c>
       <c r="H55">
-        <v>280.20964414646699</v>
+        <v>217.17761752136701</v>
       </c>
       <c r="I55">
-        <v>3362051</v>
+        <v>2695956</v>
       </c>
       <c r="J55">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="K55">
-        <v>3878</v>
+        <v>3744</v>
       </c>
       <c r="L55">
-        <v>597</v>
+        <v>169</v>
       </c>
       <c r="M55">
-        <v>32377</v>
+        <v>44016</v>
       </c>
       <c r="N55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="B56">
-        <v>47.63</v>
+        <v>12.33</v>
       </c>
       <c r="C56">
-        <v>4.4000000000000004</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>0.96799999999999997</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="G56">
-        <v>4594</v>
+        <v>31376</v>
       </c>
       <c r="H56">
-        <v>270.50676982591801</v>
+        <v>227.71056661562</v>
       </c>
       <c r="I56">
-        <v>864213</v>
+        <v>480323</v>
       </c>
       <c r="J56">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="K56">
-        <v>1034</v>
+        <v>653</v>
       </c>
       <c r="L56">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>14091</v>
+        <v>73378</v>
       </c>
       <c r="N56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="B57">
-        <v>17.22</v>
+        <v>16.18</v>
       </c>
       <c r="C57">
-        <v>1.52</v>
+        <v>0.41</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>0.96699999999999997</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="G57">
-        <v>5722</v>
+        <v>19491</v>
       </c>
       <c r="H57">
-        <v>267.695652173913</v>
+        <v>157.16381418092899</v>
       </c>
       <c r="I57">
-        <v>209171</v>
+        <v>220878</v>
       </c>
       <c r="J57">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="K57">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>17185</v>
+        <v>30355</v>
       </c>
       <c r="N57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B58">
-        <v>40.549999999999997</v>
+        <v>11.5</v>
       </c>
       <c r="C58">
-        <v>11.33</v>
+        <v>0.22</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>0.96899999999999997</v>
+        <v>0.89</v>
       </c>
       <c r="G58">
-        <v>10040</v>
+        <v>17946</v>
       </c>
       <c r="H58">
-        <v>275.88244766505602</v>
+        <v>214.90635451505</v>
       </c>
       <c r="I58">
-        <v>528704</v>
+        <v>214935</v>
       </c>
       <c r="J58">
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="K58">
-        <v>621</v>
+        <v>299</v>
       </c>
       <c r="L58">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>45944</v>
+        <v>25164</v>
       </c>
       <c r="N58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B59">
-        <v>25.16</v>
+        <v>13.75</v>
       </c>
       <c r="C59">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>0.97199999999999998</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="G59">
-        <v>12250</v>
+        <v>14118</v>
       </c>
       <c r="H59">
-        <v>285.19869706840302</v>
+        <v>192.15317286652001</v>
       </c>
       <c r="I59">
-        <v>269200</v>
+        <v>288738</v>
       </c>
       <c r="J59">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="K59">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="L59">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>24334</v>
+        <v>19777</v>
       </c>
       <c r="N59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B60">
-        <v>94.64</v>
+        <v>48.07</v>
       </c>
       <c r="C60">
-        <v>68.25</v>
+        <v>78.88</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>0.96199999999999997</v>
+        <v>0.872</v>
       </c>
       <c r="G60">
-        <v>4620</v>
+        <v>17982</v>
       </c>
       <c r="H60">
-        <v>271.007022770802</v>
+        <v>170.119027590847</v>
       </c>
       <c r="I60">
-        <v>3955868</v>
+        <v>6887674</v>
       </c>
       <c r="J60">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="K60">
-        <v>4699</v>
+        <v>11888</v>
       </c>
       <c r="L60">
-        <v>857</v>
+        <v>398</v>
       </c>
       <c r="M60">
-        <v>34368</v>
+        <v>75020</v>
       </c>
       <c r="N60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B61">
-        <v>74.48</v>
+        <v>12.93</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>0.96799999999999997</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="G61">
-        <v>17558</v>
+        <v>16475</v>
       </c>
       <c r="H61">
-        <v>272.78961748633799</v>
+        <v>226.776070252469</v>
       </c>
       <c r="I61">
-        <v>616361</v>
+        <v>754808</v>
       </c>
       <c r="J61">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="K61">
-        <v>732</v>
+        <v>911</v>
       </c>
       <c r="L61">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M61">
-        <v>35410</v>
+        <v>33936</v>
       </c>
       <c r="N61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C62">
-        <v>0.03</v>
+        <v>0.47</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>0.97299999999999998</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G62">
-        <v>18927</v>
+        <v>13755</v>
       </c>
       <c r="H62">
-        <v>303.68325791855199</v>
+        <v>212.307291666666</v>
       </c>
       <c r="I62">
-        <v>206338</v>
+        <v>268171</v>
       </c>
       <c r="J62">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="K62">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>47897</v>
+        <v>23609</v>
       </c>
       <c r="N62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B63">
-        <v>7.93</v>
+        <v>9.98</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>0.91</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G63">
-        <v>3782</v>
+        <v>18933</v>
       </c>
       <c r="H63">
-        <v>261.25498007968099</v>
+        <v>207.97604790419101</v>
       </c>
       <c r="I63">
-        <v>215762</v>
+        <v>341979</v>
       </c>
       <c r="J63">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="K63">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="L63">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>7956</v>
+        <v>26189</v>
       </c>
       <c r="N63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B64">
-        <v>99.59</v>
+        <v>47.78</v>
       </c>
       <c r="C64">
-        <v>84.12</v>
+        <v>16.77</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E64">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>0.95899999999999996</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="G64">
-        <v>3760</v>
+        <v>17125</v>
       </c>
       <c r="H64">
-        <v>261.936819324211</v>
+        <v>206.52034883720901</v>
       </c>
       <c r="I64">
-        <v>11693418</v>
+        <v>1909219</v>
       </c>
       <c r="J64">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="K64">
-        <v>14324</v>
+        <v>2752</v>
       </c>
       <c r="L64">
-        <v>2944</v>
+        <v>112</v>
       </c>
       <c r="M64">
-        <v>34122</v>
+        <v>58394</v>
       </c>
       <c r="N64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="B65">
-        <v>20.010000000000002</v>
+        <v>7.96</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>0.95099999999999996</v>
+        <v>0.86</v>
       </c>
       <c r="G65">
-        <v>6693</v>
+        <v>15678</v>
       </c>
       <c r="H65">
-        <v>273.12430939226499</v>
+        <v>197.55342465753401</v>
       </c>
       <c r="I65">
-        <v>311148</v>
+        <v>248869</v>
       </c>
       <c r="J65">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="K65">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L65">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>17751</v>
+        <v>31941</v>
       </c>
       <c r="N65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66">
+        <v>55.63</v>
+      </c>
+      <c r="C66">
+        <v>1.68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G66">
+        <v>29769</v>
+      </c>
+      <c r="H66">
+        <v>271.20018198362101</v>
+      </c>
+      <c r="I66">
+        <v>975344</v>
+      </c>
+      <c r="J66">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K66">
+        <v>1099</v>
+      </c>
+      <c r="L66">
+        <v>43</v>
+      </c>
+      <c r="M66">
+        <v>80253</v>
+      </c>
+      <c r="N66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67">
+        <v>61.39</v>
+      </c>
+      <c r="C67">
+        <v>11.32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>0.876</v>
+      </c>
+      <c r="G67">
+        <v>22913</v>
+      </c>
+      <c r="H67">
+        <v>169.177347242921</v>
+      </c>
+      <c r="I67">
+        <v>769027</v>
+      </c>
+      <c r="J67">
+        <v>0.31</v>
+      </c>
+      <c r="K67">
+        <v>1342</v>
+      </c>
+      <c r="L67">
+        <v>41</v>
+      </c>
+      <c r="M67">
+        <v>36338</v>
+      </c>
+      <c r="N67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68">
+        <v>17.39</v>
+      </c>
+      <c r="C68">
+        <v>2.02</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="G68">
+        <v>16271</v>
+      </c>
+      <c r="H68">
+        <v>214.712544802867</v>
+      </c>
+      <c r="I68">
+        <v>1028048</v>
+      </c>
+      <c r="J68">
+        <v>0.53</v>
+      </c>
+      <c r="K68">
+        <v>1395</v>
+      </c>
+      <c r="L68">
+        <v>63</v>
+      </c>
+      <c r="M68">
+        <v>56312</v>
+      </c>
+      <c r="N68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69">
+        <v>8.08</v>
+      </c>
+      <c r="C69">
+        <v>0.01</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="G69">
+        <v>16126</v>
+      </c>
+      <c r="H69">
+        <v>203.793956043956</v>
+      </c>
+      <c r="I69">
+        <v>255642</v>
+      </c>
+      <c r="J69">
+        <v>0.41</v>
+      </c>
+      <c r="K69">
+        <v>364</v>
+      </c>
+      <c r="L69">
+        <v>15</v>
+      </c>
+      <c r="M69">
+        <v>46411</v>
+      </c>
+      <c r="N69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70">
+        <v>28.39</v>
+      </c>
+      <c r="C70">
+        <v>0.04</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G70">
+        <v>17360</v>
+      </c>
+      <c r="H70">
+        <v>207.15322580645099</v>
+      </c>
+      <c r="I70">
+        <v>689517</v>
+      </c>
+      <c r="J70">
+        <v>0.41</v>
+      </c>
+      <c r="K70">
+        <v>992</v>
+      </c>
+      <c r="L70">
+        <v>42</v>
+      </c>
+      <c r="M70">
+        <v>35081</v>
+      </c>
+      <c r="N70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71">
+        <v>9.51</v>
+      </c>
+      <c r="C71">
+        <v>0.79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G71">
+        <v>13831</v>
+      </c>
+      <c r="H71">
+        <v>187.48623853211001</v>
+      </c>
+      <c r="I71">
+        <v>368882</v>
+      </c>
+      <c r="J71">
+        <v>0.4</v>
+      </c>
+      <c r="K71">
+        <v>545</v>
+      </c>
+      <c r="L71">
+        <v>26</v>
+      </c>
+      <c r="M71">
+        <v>27765</v>
+      </c>
+      <c r="N71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>102.69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G72">
+        <v>17166</v>
+      </c>
+      <c r="H72">
+        <v>171.32637737100799</v>
+      </c>
+      <c r="I72">
+        <v>19425462</v>
+      </c>
+      <c r="J72">
+        <v>0.35</v>
+      </c>
+      <c r="K72">
+        <v>33161</v>
+      </c>
+      <c r="L72">
+        <v>1127</v>
+      </c>
+      <c r="M72">
+        <v>132991</v>
+      </c>
+      <c r="N72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73">
+        <v>22.74</v>
+      </c>
+      <c r="C73">
+        <v>0.95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G73">
+        <v>15645</v>
+      </c>
+      <c r="H73">
+        <v>181.75528169014001</v>
+      </c>
+      <c r="I73">
+        <v>709335</v>
+      </c>
+      <c r="J73">
+        <v>0.3</v>
+      </c>
+      <c r="K73">
+        <v>1136</v>
+      </c>
+      <c r="L73">
+        <v>42</v>
+      </c>
+      <c r="M73">
+        <v>52508</v>
+      </c>
+      <c r="N73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A74" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74">
+        <v>79.53</v>
+      </c>
+      <c r="C74">
+        <v>15.9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G74">
+        <v>62890</v>
+      </c>
+      <c r="H74">
+        <v>281.63198573127198</v>
+      </c>
+      <c r="I74">
+        <v>1539249</v>
+      </c>
+      <c r="J74">
+        <v>0.59</v>
+      </c>
+      <c r="K74">
+        <v>1682</v>
+      </c>
+      <c r="L74">
+        <v>53</v>
+      </c>
+      <c r="M74">
+        <v>220223</v>
+      </c>
+      <c r="N74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75">
+        <v>40.42</v>
+      </c>
+      <c r="C75">
+        <v>1.65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0.877</v>
+      </c>
+      <c r="G75">
+        <v>18276</v>
+      </c>
+      <c r="H75">
+        <v>224.96310193871099</v>
+      </c>
+      <c r="I75">
+        <v>1220202</v>
+      </c>
+      <c r="J75">
+        <v>0.53</v>
+      </c>
+      <c r="K75">
+        <v>1599</v>
+      </c>
+      <c r="L75">
+        <v>69</v>
+      </c>
+      <c r="M75">
+        <v>39844</v>
+      </c>
+      <c r="N75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76">
+        <v>39.57</v>
+      </c>
+      <c r="C76">
+        <v>7.69</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76">
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G76">
+        <v>16492</v>
+      </c>
+      <c r="H76">
+        <v>203.71349009900899</v>
+      </c>
+      <c r="I76">
+        <v>1109285</v>
+      </c>
+      <c r="J76">
+        <v>0.36</v>
+      </c>
+      <c r="K76">
+        <v>1616</v>
+      </c>
+      <c r="L76">
+        <v>69</v>
+      </c>
+      <c r="M76">
+        <v>35912</v>
+      </c>
+      <c r="N76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77">
+        <v>29.91</v>
+      </c>
+      <c r="C77">
+        <v>3.13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G77">
+        <v>16969</v>
+      </c>
+      <c r="H77">
+        <v>207.842555994729</v>
+      </c>
+      <c r="I77">
+        <v>1095061</v>
+      </c>
+      <c r="J77">
+        <v>0.44</v>
+      </c>
+      <c r="K77">
+        <v>1518</v>
+      </c>
+      <c r="L77">
+        <v>63</v>
+      </c>
+      <c r="M77">
+        <v>40175</v>
+      </c>
+      <c r="N77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78">
+        <v>29.8</v>
+      </c>
+      <c r="C78">
+        <v>7.03</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>0.88</v>
+      </c>
+      <c r="G78">
+        <v>14742</v>
+      </c>
+      <c r="H78">
+        <v>195.633155792276</v>
+      </c>
+      <c r="I78">
+        <v>992259</v>
+      </c>
+      <c r="J78">
+        <v>0.34</v>
+      </c>
+      <c r="K78">
+        <v>1502</v>
+      </c>
+      <c r="L78">
+        <v>65</v>
+      </c>
+      <c r="M78">
+        <v>39085</v>
+      </c>
+      <c r="N78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79">
+        <v>7.07</v>
+      </c>
+      <c r="C79">
+        <v>0.01</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>0.84</v>
+      </c>
+      <c r="G79">
+        <v>13043</v>
+      </c>
+      <c r="H79">
+        <v>193.878205128205</v>
+      </c>
+      <c r="I79">
+        <v>214648</v>
+      </c>
+      <c r="J79">
+        <v>0.38</v>
+      </c>
+      <c r="K79">
+        <v>312</v>
+      </c>
+      <c r="L79">
+        <v>17</v>
+      </c>
+      <c r="M79">
+        <v>18677</v>
+      </c>
+      <c r="N79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80">
+        <v>48.1</v>
+      </c>
+      <c r="C80">
+        <v>6.99</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G80">
+        <v>17794</v>
+      </c>
+      <c r="H80">
+        <v>223.019529693104</v>
+      </c>
+      <c r="I80">
+        <v>1890299</v>
+      </c>
+      <c r="J80">
+        <v>0.65</v>
+      </c>
+      <c r="K80">
+        <v>2509</v>
+      </c>
+      <c r="L80">
+        <v>109</v>
+      </c>
+      <c r="M80">
+        <v>43067</v>
+      </c>
+      <c r="N80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81">
+        <v>22.11</v>
+      </c>
+      <c r="C81">
+        <v>1.24</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>0.879</v>
+      </c>
+      <c r="G81">
+        <v>17248</v>
+      </c>
+      <c r="H81">
+        <v>202.25069897483601</v>
+      </c>
+      <c r="I81">
+        <v>735040</v>
+      </c>
+      <c r="J81">
+        <v>0.37</v>
+      </c>
+      <c r="K81">
+        <v>1073</v>
+      </c>
+      <c r="L81">
+        <v>44</v>
+      </c>
+      <c r="M81">
+        <v>53296</v>
+      </c>
+      <c r="N81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82">
+        <v>14.27</v>
+      </c>
+      <c r="C82">
+        <v>0.1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>0.873</v>
+      </c>
+      <c r="G82">
+        <v>19690</v>
+      </c>
+      <c r="H82">
+        <v>224.45417236662101</v>
+      </c>
+      <c r="I82">
+        <v>559494</v>
+      </c>
+      <c r="J82">
+        <v>0.54</v>
+      </c>
+      <c r="K82">
+        <v>731</v>
+      </c>
+      <c r="L82">
+        <v>33</v>
+      </c>
+      <c r="M82">
+        <v>39430</v>
+      </c>
+      <c r="N82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83">
+        <v>5.57</v>
+      </c>
+      <c r="C83">
+        <v>0.05</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>0.89</v>
+      </c>
+      <c r="G83">
+        <v>20525</v>
+      </c>
+      <c r="H83">
+        <v>236.18633540372599</v>
+      </c>
+      <c r="I83">
+        <v>254907</v>
+      </c>
+      <c r="J83">
+        <v>0.52</v>
+      </c>
+      <c r="K83">
+        <v>322</v>
+      </c>
+      <c r="L83">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <v>44301</v>
+      </c>
+      <c r="N83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84">
+        <v>34.43</v>
+      </c>
+      <c r="C84">
+        <v>7.23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G84">
+        <v>18948</v>
+      </c>
+      <c r="H84">
+        <v>210.93062200956899</v>
+      </c>
+      <c r="I84">
+        <v>1226033</v>
+      </c>
+      <c r="J84">
+        <v>0.46</v>
+      </c>
+      <c r="K84">
+        <v>1672</v>
+      </c>
+      <c r="L84">
+        <v>66</v>
+      </c>
+      <c r="M84">
+        <v>59534</v>
+      </c>
+      <c r="N84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85">
+        <v>16.23</v>
+      </c>
+      <c r="C85">
+        <v>0.2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>0.877</v>
+      </c>
+      <c r="G85">
+        <v>15172</v>
+      </c>
+      <c r="H85">
+        <v>155.86430062630399</v>
+      </c>
+      <c r="I85">
+        <v>252045</v>
+      </c>
+      <c r="J85">
+        <v>0.34</v>
+      </c>
+      <c r="K85">
+        <v>479</v>
+      </c>
+      <c r="L85">
+        <v>16</v>
+      </c>
+      <c r="M85">
+        <v>25305</v>
+      </c>
+      <c r="N85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A86" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86">
+        <v>58.35</v>
+      </c>
+      <c r="C86">
+        <v>9.94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>0.82</v>
+      </c>
+      <c r="G86">
+        <v>17406</v>
+      </c>
+      <c r="H86">
+        <v>210.18700427089601</v>
+      </c>
+      <c r="I86">
+        <v>2506563</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+      <c r="K86">
+        <v>3278</v>
+      </c>
+      <c r="L86">
+        <v>147</v>
+      </c>
+      <c r="M86">
+        <v>45590</v>
+      </c>
+      <c r="N86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87">
+        <v>47.1</v>
+      </c>
+      <c r="C87">
+        <v>13.96</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G87">
+        <v>15484</v>
+      </c>
+      <c r="H87">
+        <v>206.38580827067599</v>
+      </c>
+      <c r="I87">
+        <v>3102675</v>
+      </c>
+      <c r="J87">
+        <v>0.41</v>
+      </c>
+      <c r="K87">
+        <v>4256</v>
+      </c>
+      <c r="L87">
+        <v>204</v>
+      </c>
+      <c r="M87">
+        <v>37421</v>
+      </c>
+      <c r="N87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A88" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>0.87</v>
+      </c>
+      <c r="G88">
+        <v>14402</v>
+      </c>
+      <c r="H88">
+        <v>184.81055900621101</v>
+      </c>
+      <c r="I88">
+        <v>202939</v>
+      </c>
+      <c r="J88">
+        <v>0.33</v>
+      </c>
+      <c r="K88">
+        <v>322</v>
+      </c>
+      <c r="L88">
+        <v>15</v>
+      </c>
+      <c r="M88">
+        <v>24990</v>
+      </c>
+      <c r="N88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A89" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="C89">
+        <v>1.91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>0.87</v>
+      </c>
+      <c r="G89">
+        <v>16457</v>
+      </c>
+      <c r="H89">
+        <v>252.635537190082</v>
+      </c>
+      <c r="I89">
+        <v>2094125</v>
+      </c>
+      <c r="J89">
+        <v>0.63</v>
+      </c>
+      <c r="K89">
+        <v>2420</v>
+      </c>
+      <c r="L89">
+        <v>131</v>
+      </c>
+      <c r="M89">
+        <v>34282</v>
+      </c>
+      <c r="N89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A90" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90">
+        <v>16.12</v>
+      </c>
+      <c r="C90">
+        <v>0.17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>0.872</v>
+      </c>
+      <c r="G90">
+        <v>16880</v>
+      </c>
+      <c r="H90">
+        <v>224.33213859020299</v>
+      </c>
+      <c r="I90">
+        <v>641437</v>
+      </c>
+      <c r="J90">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K90">
+        <v>837</v>
+      </c>
+      <c r="L90">
+        <v>41</v>
+      </c>
+      <c r="M90">
+        <v>36873</v>
+      </c>
+      <c r="N90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A91" t="s">
+        <v>216</v>
+      </c>
+      <c r="B91">
+        <v>15.93</v>
+      </c>
+      <c r="C91">
+        <v>20.92</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G91">
+        <v>16770</v>
+      </c>
+      <c r="H91">
+        <v>168.47397769516701</v>
+      </c>
+      <c r="I91">
+        <v>941734</v>
+      </c>
+      <c r="J91">
+        <v>0.3</v>
+      </c>
+      <c r="K91">
+        <v>1614</v>
+      </c>
+      <c r="L91">
+        <v>58</v>
+      </c>
+      <c r="M91">
+        <v>55415</v>
+      </c>
+      <c r="N91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A92" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92">
+        <v>67.72</v>
+      </c>
+      <c r="C92">
+        <v>21.67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G92">
+        <v>25580</v>
+      </c>
+      <c r="H92">
+        <v>228.57648049396499</v>
+      </c>
+      <c r="I92">
+        <v>2717090</v>
+      </c>
+      <c r="J92">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K92">
+        <v>3563</v>
+      </c>
+      <c r="L92">
+        <v>125</v>
+      </c>
+      <c r="M92">
+        <v>101558</v>
+      </c>
+      <c r="N92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A93" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93">
+        <v>32.06</v>
+      </c>
+      <c r="C93">
+        <v>7.17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G93">
+        <v>17429</v>
+      </c>
+      <c r="H93">
+        <v>234.13886113886099</v>
+      </c>
+      <c r="I93">
+        <v>764656</v>
+      </c>
+      <c r="J93">
+        <v>0.52</v>
+      </c>
+      <c r="K93">
+        <v>1001</v>
+      </c>
+      <c r="L93">
+        <v>47</v>
+      </c>
+      <c r="M93">
+        <v>38737</v>
+      </c>
+      <c r="N93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A94" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94">
+        <v>42.33</v>
+      </c>
+      <c r="C94">
+        <v>4.25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="G94">
+        <v>17836</v>
+      </c>
+      <c r="H94">
+        <v>211.63023358307601</v>
+      </c>
+      <c r="I94">
+        <v>1696068</v>
+      </c>
+      <c r="J94">
+        <v>0.44</v>
+      </c>
+      <c r="K94">
+        <v>2269</v>
+      </c>
+      <c r="L94">
         <v>99</v>
       </c>
-      <c r="B66">
-        <v>38.78</v>
-      </c>
-      <c r="C66">
-        <v>0.24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66">
-        <v>11</v>
-      </c>
-      <c r="F66">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="G66">
-        <v>4089</v>
-      </c>
-      <c r="H66">
-        <v>312.35340022296498</v>
-      </c>
-      <c r="I66">
-        <v>881129</v>
-      </c>
-      <c r="J66">
+      <c r="M94">
+        <v>53609</v>
+      </c>
+      <c r="N94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A95" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95">
+        <v>13.98</v>
+      </c>
+      <c r="C95">
+        <v>0.51</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95">
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <v>0.873</v>
+      </c>
+      <c r="G95">
+        <v>16772</v>
+      </c>
+      <c r="H95">
+        <v>227.72356215213301</v>
+      </c>
+      <c r="I95">
+        <v>839369</v>
+      </c>
+      <c r="J95">
+        <v>0.52</v>
+      </c>
+      <c r="K95">
+        <v>1078</v>
+      </c>
+      <c r="L95">
+        <v>51</v>
+      </c>
+      <c r="M95">
+        <v>36925</v>
+      </c>
+      <c r="N95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A96" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96">
+        <v>6.04</v>
+      </c>
+      <c r="C96">
+        <v>0.01</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="G96">
+        <v>13957</v>
+      </c>
+      <c r="H96">
+        <v>240.84269662921301</v>
+      </c>
+      <c r="I96">
+        <v>215847</v>
+      </c>
+      <c r="J96">
         <v>0.59</v>
       </c>
-      <c r="K66">
-        <v>897</v>
-      </c>
-      <c r="L66">
-        <v>207</v>
-      </c>
-      <c r="M66">
-        <v>21855</v>
-      </c>
-      <c r="N66" t="s">
-        <v>34</v>
+      <c r="K96">
+        <v>267</v>
+      </c>
+      <c r="L96">
+        <v>16</v>
+      </c>
+      <c r="M96">
+        <v>19308</v>
+      </c>
+      <c r="N96" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{ED2507D1-011B-4591-BAF3-9F83953C8369}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N47">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4343,81 +5837,81 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="T1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>97.4</v>
@@ -4426,60 +5920,60 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>97.12</v>
@@ -4488,60 +5982,60 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>97.51</v>
@@ -4550,93 +6044,93 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Q4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="Q5">
         <v>33.659999999999997</v>
@@ -4648,24 +6142,24 @@
         <v>0.97468999999999995</v>
       </c>
       <c r="T5" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
       </c>
       <c r="D6">
         <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>97.53</v>
@@ -4674,60 +6168,60 @@
         <v>0.53400000000000003</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>97.32</v>
@@ -4736,60 +6230,60 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F8">
         <v>97.83</v>
@@ -4798,60 +6292,60 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="Q8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <v>95.73</v>
@@ -4860,60 +6354,60 @@
         <v>0.51</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="Q9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F10">
         <v>97.63</v>
@@ -4922,60 +6416,60 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>96.46</v>
@@ -4984,60 +6478,60 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="Q11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D12">
         <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F12">
         <v>97.94</v>
@@ -5046,60 +6540,60 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="Q12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>98.67</v>
@@ -5108,122 +6602,122 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="Q13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>97.06</v>
@@ -5232,60 +6726,60 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O15" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="Q15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D16">
         <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <v>97.67</v>
@@ -5294,43 +6788,43 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="Q16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
